--- a/workfile/锐安项目文档/bi交付文档/bi交付文档1107/支持文档/数据etl支持/财务数据源/财务三表数据源/三表表结构及字段清单(1).xlsx
+++ b/workfile/锐安项目文档/bi交付文档/bi交付文档1107/支持文档/数据etl支持/财务数据源/财务三表数据源/三表表结构及字段清单(1).xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\workspace\workfile\锐安项目文档\bi交付文档\bi交付文档1107\支持文档\数据etl支持\财务数据源\财务三表数据源\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7680"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19335" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -825,14 +830,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,155 +844,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,194 +869,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1229,251 +906,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1486,61 +921,17 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1827,19 +1218,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
@@ -1847,10 +1238,12 @@
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -2045,7 +1438,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
@@ -2134,7 +1527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +1600,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>64</v>
@@ -2278,7 +1671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>64</v>
@@ -2349,7 +1742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>64</v>
@@ -2420,7 +1813,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>64</v>
@@ -2491,7 +1884,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2508,7 +1901,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -2535,7 +1928,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -2562,7 +1955,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -2589,7 +1982,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
@@ -2613,7 +2006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>64</v>
@@ -2635,7 +2028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>64</v>
@@ -2657,7 +2050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>64</v>
@@ -2679,7 +2072,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>64</v>
@@ -2701,7 +2094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +2111,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -2776,7 +2169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -2805,7 +2198,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
@@ -2830,7 +2223,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
         <v>110</v>
@@ -2853,7 +2246,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>110</v>
@@ -2876,7 +2269,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>110</v>
@@ -2899,7 +2292,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>110</v>
@@ -2922,7 +2315,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -2971,7 +2364,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -3003,7 +2396,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -3035,7 +2428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>63</v>
       </c>
@@ -3065,7 +2458,7 @@
       </c>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>64</v>
@@ -3093,7 +2486,7 @@
       </c>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>64</v>
@@ -3121,7 +2514,7 @@
       </c>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
         <v>110</v>
@@ -3151,7 +2544,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
         <v>110</v>
@@ -3181,7 +2574,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>110</v>
@@ -3211,7 +2604,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
         <v>110</v>
@@ -3241,7 +2634,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -3263,7 +2656,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
@@ -3293,7 +2686,7 @@
       </c>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>34</v>
       </c>
@@ -3323,7 +2716,7 @@
       </c>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
@@ -3355,7 +2748,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -3372,7 +2765,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
@@ -3393,7 +2786,7 @@
       </c>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>34</v>
       </c>
@@ -3414,7 +2807,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
@@ -3435,7 +2828,7 @@
       </c>
       <c r="G52" s="6"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -3452,7 +2845,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>5</v>
       </c>
@@ -3475,7 +2868,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>34</v>
       </c>
@@ -3498,7 +2891,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
@@ -3521,7 +2914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +2931,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
@@ -3558,7 +2951,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>34</v>
       </c>
@@ -3578,7 +2971,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
@@ -3598,7 +2991,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
@@ -3615,7 +3008,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>5</v>
       </c>
@@ -3638,7 +3031,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>34</v>
       </c>
@@ -3661,7 +3054,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
@@ -3684,7 +3077,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3094,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>5</v>
       </c>
@@ -3724,7 +3117,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>34</v>
       </c>
@@ -3747,7 +3140,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>62</v>
       </c>
@@ -3770,7 +3163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
@@ -3787,7 +3180,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>5</v>
       </c>
@@ -3798,7 +3191,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>34</v>
       </c>
@@ -3809,7 +3202,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>62</v>
       </c>
@@ -3820,7 +3213,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
@@ -3837,7 +3230,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>5</v>
       </c>
@@ -3848,7 +3241,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>34</v>
       </c>
@@ -3859,7 +3252,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>62</v>
       </c>
@@ -3870,7 +3263,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>0</v>
       </c>
@@ -3887,7 +3280,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>5</v>
       </c>
@@ -3898,7 +3291,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>34</v>
       </c>
@@ -3909,7 +3302,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>62</v>
       </c>
@@ -3920,7 +3313,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>5</v>
       </c>
@@ -3948,7 +3341,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>34</v>
       </c>
@@ -3959,7 +3352,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>62</v>
       </c>
@@ -3970,7 +3363,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -3987,7 +3380,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>5</v>
       </c>
@@ -3998,7 +3391,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>34</v>
       </c>
@@ -4009,7 +3402,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>62</v>
       </c>
@@ -4020,7 +3413,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>249</v>
       </c>
@@ -4037,7 +3430,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>5</v>
       </c>
@@ -4048,7 +3441,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>34</v>
       </c>
@@ -4059,7 +3452,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>62</v>
       </c>
@@ -4070,7 +3463,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>0</v>
       </c>
@@ -4087,7 +3480,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>5</v>
       </c>
@@ -4098,7 +3491,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>34</v>
       </c>
@@ -4109,7 +3502,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>62</v>
       </c>
@@ -4120,7 +3513,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>0</v>
       </c>
@@ -4137,7 +3530,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>5</v>
       </c>
@@ -4151,7 +3544,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>34</v>
       </c>
@@ -4165,7 +3558,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>62</v>
       </c>
@@ -4179,7 +3572,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>0</v>
       </c>
@@ -4196,7 +3589,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>5</v>
       </c>
@@ -4210,7 +3603,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>34</v>
       </c>
@@ -4224,7 +3617,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>62</v>
       </c>
@@ -4239,40 +3632,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>